--- a/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
+++ b/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,22 +22,31 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>519975</t>
+  </si>
+  <si>
     <t>005437</t>
   </si>
   <si>
     <t>005438</t>
   </si>
   <si>
-    <t>519975</t>
+    <t>长信量化中小盘股票</t>
   </si>
   <si>
     <t>易方达易百智能量化策略灵活配置混合A</t>
@@ -46,19 +55,34 @@
     <t>易方达易百智能量化策略灵活配置混合C</t>
   </si>
   <si>
-    <t>长信量化中小盘股票</t>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>93.04</t>
   </si>
   <si>
     <t>80.81</t>
   </si>
   <si>
-    <t>93.04</t>
+    <t>1.92</t>
   </si>
   <si>
     <t>0.68</t>
   </si>
   <si>
-    <t>1.92</t>
+    <t>0.0488</t>
+  </si>
+  <si>
+    <t>0.0056</t>
+  </si>
+  <si>
+    <t>0.0014</t>
   </si>
 </sst>
 </file>
@@ -416,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,65 +462,89 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
+++ b/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>519975</t>
-  </si>
-  <si>
-    <t>005437</t>
-  </si>
-  <si>
-    <t>005438</t>
-  </si>
-  <si>
-    <t>长信量化中小盘股票</t>
-  </si>
-  <si>
-    <t>易方达易百智能量化策略灵活配置混合A</t>
-  </si>
-  <si>
-    <t>易方达易百智能量化策略灵活配置混合C</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>93.04</t>
-  </si>
-  <si>
-    <t>80.81</t>
-  </si>
-  <si>
-    <t>1.92</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.0488</t>
-  </si>
-  <si>
-    <t>0.0056</t>
-  </si>
-  <si>
-    <t>0.0014</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,115 +446,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
+++ b/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
+++ b/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,17 +842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -861,14 +882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2513</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -877,13 +920,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
+++ b/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.8</v>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1200,14 +1243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1216,13 +1281,473 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
+++ b/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,167 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519975</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长信量化中小盘股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005437</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.81</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>7</v>
       </c>
+      <c r="D3" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005438</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -624,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -675,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001980</t>
+          <t>519110</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧量化驱动混合</t>
+          <t>浦银安盛价值成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>91.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1293</t>
+          <t>0.3083</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -713,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>519170</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>浦银安盛增长动力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>89.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.2769</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -751,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002236</t>
+          <t>006424</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成中证360互联网+大数据100指数A</t>
+          <t>嘉合锦程价值精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>87.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.1489</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -789,36 +719,336 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003359</t>
+          <t>519113</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成中证360互联网+大数据100指数C</t>
+          <t>浦银安盛精致生活混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.1173</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,7 +1405,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1205,36 +1435,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519110</t>
+          <t>001980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浦银安盛价值成长混合A</t>
+          <t>中欧量化驱动混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>86.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3083</t>
+          <t>0.1293</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1243,36 +1473,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519170</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浦银安盛增长动力灵活配置混合</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.55</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2769</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1281,36 +1511,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006424</t>
+          <t>002236</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉合锦程价值精选混合A</t>
+          <t>大成中证360互联网+大数据100指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1489</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1319,336 +1549,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519113</t>
+          <t>003359</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浦银安盛精致生活混合</t>
+          <t>大成中证360互联网+大数据100指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1173</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519120</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浦银安盛新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1138</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006425</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉合锦程价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0655</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005090</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005091</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014003</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>浦银安盛增长动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>014061</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浦银安盛新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>960031</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浦银安盛价值成长混合H</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>014011</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浦银安盛价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1662,96 +1592,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.08</v>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>4.8</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
+++ b/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.8</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -549,6 +566,3174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1762</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9494</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8231</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7764</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012820</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富价值领先混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7600</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7102</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6982</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014228</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6162</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5448</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3406</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013552</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013553</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>62.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华富新能源股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015320</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013847</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013259</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013470</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013469</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013848</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015321</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>016579</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1056,7 +4241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1378,7 +4563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1586,7 +4771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
+++ b/数据整理/stocks/A股/深证主板/002335-科华数据.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="D2" t="n">
-        <v>21.36</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>1.08</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>4.8</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -566,6 +583,4430 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2924</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0452</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9215</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8877</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8793</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7616</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7549</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7256</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利景气领航两年持有混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6544</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6457</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5818</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014228</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5704</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4742</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4736</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4103</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2546</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016097</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴兴弘一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>66.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009467</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015900</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方阿尔法兴科一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015320</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015005</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015011</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015010</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014545</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浦银安盛兴耀优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>75.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015722</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013259</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014478</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>016098</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东吴兴弘一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>66.01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013173</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014546</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>浦银安盛兴耀优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>75.12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉合睿金混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015901</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方阿尔法兴科一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013771</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013772</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉合睿金混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159628</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>万家国证2000ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>26.91</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>26.91</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011015</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014479</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>015004</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>015321</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>016579</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011016</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014471</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3733,7 +8174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4241,7 +8682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4563,7 +9004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4771,7 +9212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
